--- a/bt_expense/Expenses.xlsx
+++ b/bt_expense/Expenses.xlsx
@@ -9,14 +9,24 @@
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
     <sheet name="Setup" sheetId="2" r:id="rId2"/>
-    <sheet name="Lookups" sheetId="3" r:id="rId3"/>
+    <sheet name="Projects" sheetId="3" r:id="rId3"/>
+    <sheet name="Categories" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="category">ExpenseEntries[Expense Category]</definedName>
+    <definedName name="cost">ExpenseEntries[Cost]</definedName>
+    <definedName name="date">ExpenseEntries[Date]</definedName>
+    <definedName name="note">ExpenseEntries[Notes]</definedName>
+    <definedName name="project">ExpenseEntries[Project]</definedName>
+    <definedName name="project_name_lk">Project_lookup[Project Name]</definedName>
+    <definedName name="projectsid_lk">Project_lookup[projectsid]</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>User Id</t>
   </si>
@@ -39,9 +49,6 @@
     <t>firm_name_here</t>
   </si>
   <si>
-    <t>user_name/id_here</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -61,6 +68,42 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Project C</t>
+  </si>
+  <si>
+    <t>Project D</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Airfare</t>
+  </si>
+  <si>
+    <t>Lodging</t>
+  </si>
+  <si>
+    <t>Ground Transportation</t>
+  </si>
+  <si>
+    <t>user_id_here</t>
+  </si>
+  <si>
+    <t>Project E</t>
   </si>
 </sst>
 </file>
@@ -70,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +140,37 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,12 +178,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,12 +251,87 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -154,6 +339,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExpenseEntries" displayName="ExpenseEntries" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Project" dataDxfId="7"/>
+    <tableColumn id="2" name="Expense Category" dataDxfId="6"/>
+    <tableColumn id="3" name="Date" dataDxfId="5">
+      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Cost" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Notes"/>
+    <tableColumn id="6" name="projectsid" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="catsid" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Project_lookup" displayName="Project_lookup" ref="A1:B51" totalsRowShown="0">
+  <autoFilter ref="A1:B51"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Project Name"/>
+    <tableColumn id="2" name="projectsid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Cat_lookup" displayName="Cat_lookup" ref="A1:B11" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Category Name"/>
+    <tableColumn id="2" name="catsid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,50 +672,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="1" max="1" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="10"/>
+    <col min="6" max="6" width="14.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43115</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43116</v>
+      </c>
+      <c r="F3" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43117</v>
+      </c>
+      <c r="F4" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43118</v>
+      </c>
+      <c r="F5" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43119</v>
+      </c>
+      <c r="F6" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43120</v>
+      </c>
+      <c r="F7" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E2" s="8"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43121</v>
+      </c>
+      <c r="F8" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43122</v>
+      </c>
+      <c r="F9" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43123</v>
+      </c>
+      <c r="F10" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G10" s="15">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="C11" s="6">
+        <f t="shared" ref="C2:C31" ca="1" si="0">NOW()</f>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F11" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="C12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F12" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="C13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F13" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="C14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F14" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="C15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F15" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="C16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F16" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="C17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F17" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="C18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F18" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="C19" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F19" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="C20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F20" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="C21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F21" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="C22" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F22" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="C23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F23" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="C24" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F24" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="C25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F25" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="C26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F26" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="C27" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F27" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="C28" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F28" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="C29" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F29" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="C30" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F30" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="C31" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.800431018521</v>
+      </c>
+      <c r="F31" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="15" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Projects!$A$2:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Projects!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -495,7 +1230,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,12 +1278,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/bt_expense/Expenses.xlsx
+++ b/bt_expense/Expenses.xlsx
@@ -156,7 +156,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +169,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,14 +230,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -266,6 +286,9 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -675,526 +698,616 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="1" max="1" width="28.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>43115</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="15">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43116</v>
       </c>
-      <c r="F3" s="15">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>43117</v>
       </c>
-      <c r="F4" s="15">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43118</v>
       </c>
-      <c r="F5" s="15">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43119</v>
       </c>
-      <c r="F6" s="15">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43120</v>
       </c>
-      <c r="F7" s="15">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43121</v>
       </c>
-      <c r="F8" s="15">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43122</v>
       </c>
-      <c r="F9" s="15">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43123</v>
       </c>
-      <c r="F10" s="15">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="C11" s="6">
+      <c r="A11" s="12"/>
+      <c r="C11" s="5">
         <f t="shared" ref="C2:C31" ca="1" si="0">NOW()</f>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="15" t="e">
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="C12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F12" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="15" t="e">
+      <c r="A12" s="12"/>
+      <c r="C12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="C13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F13" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="15" t="e">
+      <c r="A13" s="12"/>
+      <c r="C13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="C14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F14" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="15" t="e">
+      <c r="A14" s="12"/>
+      <c r="C14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="C15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F15" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="15" t="e">
+      <c r="A15" s="12"/>
+      <c r="C15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="C16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F16" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="15" t="e">
+      <c r="A16" s="12"/>
+      <c r="C16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="C17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F17" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="15" t="e">
+      <c r="A17" s="12"/>
+      <c r="C17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="C18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F18" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="15" t="e">
+      <c r="A18" s="12"/>
+      <c r="C18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="C19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F19" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="15" t="e">
+      <c r="A19" s="12"/>
+      <c r="C19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="C20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F20" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="15" t="e">
+      <c r="A20" s="12"/>
+      <c r="C20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="C21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F21" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="15" t="e">
+      <c r="A21" s="12"/>
+      <c r="C21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="C22" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F22" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="15" t="e">
+      <c r="A22" s="12"/>
+      <c r="C22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="C23" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F23" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="15" t="e">
+      <c r="A23" s="12"/>
+      <c r="C23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="C24" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F24" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="15" t="e">
+      <c r="A24" s="12"/>
+      <c r="C24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="C25" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F25" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="15" t="e">
+      <c r="A25" s="12"/>
+      <c r="C25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="C26" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F26" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="15" t="e">
+      <c r="A26" s="12"/>
+      <c r="C26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="C27" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F27" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="15" t="e">
+      <c r="A27" s="12"/>
+      <c r="C27" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="C28" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F28" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="15" t="e">
+      <c r="A28" s="12"/>
+      <c r="C28" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="C29" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F29" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="15" t="e">
+      <c r="A29" s="12"/>
+      <c r="C29" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="C30" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F30" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="15" t="e">
+      <c r="A30" s="12"/>
+      <c r="C30" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="C31" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43121.800431018521</v>
-      </c>
-      <c r="F31" s="15" t="e">
-        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="15" t="e">
+      <c r="A31" s="13"/>
+      <c r="C31" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>43121.801571875003</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14" t="e">
+        <f>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Project_lookup[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="14" t="e">
         <f>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Cat_lookup[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -1206,7 +1319,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Projects!$A$2:$A$15</xm:f>
@@ -1230,7 +1343,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,34 +1352,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1290,11 +1403,11 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C1"/>
@@ -1352,7 +1465,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,10 +1475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/bt_expense/Expenses.xlsx
+++ b/bt_expense/Expenses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dstreater\bt_expense-feature-nancy_my_love\bt_expense-feature-nancy_my_love\bt_expense\dist\bt_expense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\remote-workspace\bt_expense\bt_expense\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442BD5E4-93A6-43E6-9903-FAE00840CA65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,12 @@
     <definedName name="projectsid_lk" localSheetId="3">#REF!</definedName>
     <definedName name="projectsid_lk">ProjLookups[projectsid]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Firm</t>
   </si>
@@ -179,15 +180,12 @@
   </si>
   <si>
     <t>dstreater@nrconsults.com</t>
-  </si>
-  <si>
-    <t>Butterfly#50.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -515,23 +513,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExpenseEntries" displayName="ExpenseEntries" ref="A1:G101" totalsRowShown="0">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ExpenseEntries" displayName="ExpenseEntries" ref="A1:G101" totalsRowShown="0">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:G101">
     <sortCondition ref="C1:C101"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Project" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Expense Category" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Date" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Expense Category" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Cost" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Notes"/>
-    <tableColumn id="6" name="projectsid" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Cost" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Notes"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="projectsid" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>VLOOKUP(ExpenseEntries[[#This Row],[Project]], Projects!$A$2:$B$13, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="catsid" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="catsid" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>VLOOKUP(ExpenseEntries[[#This Row],[Expense Category]], Categories!$A$2:$B$7, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -540,23 +538,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjLookups" displayName="ProjLookups" ref="A1:B51" totalsRowShown="0">
-  <autoFilter ref="A1:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="ProjLookups" displayName="ProjLookups" ref="A1:B51" totalsRowShown="0">
+  <autoFilter ref="A1:B51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Project Name"/>
-    <tableColumn id="2" name="projectsid"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Project Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="projectsid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="CatLookups" displayName="CatLookups" ref="A1:C51" totalsRowShown="0">
-  <autoFilter ref="A1:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="CatLookups" displayName="CatLookups" ref="A1:C51" totalsRowShown="0">
+  <autoFilter ref="A1:C51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="3" name="Category Name"/>
-    <tableColumn id="4" name="catsid"/>
-    <tableColumn id="1" name="Billable"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Category Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="catsid"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Billable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,6 +636,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -673,6 +688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,26 +880,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12:G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="45.1328125" style="8" customWidth="1"/>
     <col min="2" max="2" width="30" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -890,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -919,7 +951,7 @@
         <v>145.51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -944,7 +976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -969,7 +1001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1144,376 +1176,376 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C12" s="22"/>
       <c r="D12" s="18"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C13" s="22"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C14" s="22"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C15" s="22"/>
       <c r="E15" s="17"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D50" s="6"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D51" s="6"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D52" s="6"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.45">
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F101" s="14"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D102" s="15">
         <f>SUM(ExpenseEntries[Cost])</f>
         <v>145.51</v>
@@ -1598,13 +1630,13 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Projects!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A101</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Categories!$A$2:$A$7</xm:f>
           </x14:formula1>
@@ -1617,22 +1649,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,18 +1675,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="B2" s="20"/>
       <c r="C2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1698,15 +1728,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1714,20 +1744,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1766,7 @@
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1774,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1752,7 +1782,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1790,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1798,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1806,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1814,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1830,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1838,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1846,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1841,21 +1871,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1898,7 +1928,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1906,7 +1936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>34</v>
       </c>
